--- a/docs/odh/odh-OccupationalDataSection-model.xlsx
+++ b/docs/odh/odh-OccupationalDataSection-model.xlsx
@@ -146,10 +146,10 @@
     <t>Parent class for any item in clinical or administrative health-related system. A DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.</t>
   </si>
   <si>
-    <t>odh-OccupationalDataSection-model.domainResource.personEmploymentStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/odh-PersonEmploymentStatus-model {[]} {[]}
+    <t>odh-OccupationalDataSection-model.domainResource.employmentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/odh-EmploymentStatus-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -183,7 +183,7 @@
 </t>
   </si>
   <si>
-    <t>CombatZonePeriod</t>
+    <t>Self-reported date range(s) when a person worked in what is considered a combat zone; sometimes called a hazardous duty work. Both civilian workers, such as Department of Defense contractors, and military service members could have worked in combat zones. Multiple periods in combat zone should be recorded using multiple FHIR resources.</t>
   </si>
   <si>
     <t>odh-OccupationalDataSection-model.domainResource.usualWork</t>
@@ -383,7 +383,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="73.41796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="67.328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -393,7 +393,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="243.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -413,7 +413,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="73.41796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="67.328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>

--- a/docs/odh/odh-OccupationalDataSection-model.xlsx
+++ b/docs/odh/odh-OccupationalDataSection-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$17</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="91">
   <si>
     <t>Path</t>
   </si>
@@ -137,91 +137,166 @@
     <t>Section in the OccupationalDataForHealth composition, containing the person's occupational data, past and present.</t>
   </si>
   <si>
+    <t>odh-OccupationalDataSection-model.title</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A distinguishing word or group of words naming an item.</t>
+  </si>
+  <si>
+    <t>odh-OccupationalDataSection-model.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+  </si>
+  <si>
+    <t>odh-OccupationalDataSection-model.author[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model]]}
+</t>
+  </si>
+  <si>
+    <t>The actor who created the item and it responsible for the content (regardless of the information source or who recorded it). If only the author is given, it is assumed the author is the information source and the recorder.</t>
+  </si>
+  <si>
+    <t>odh-OccupationalDataSection-model.focalSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person or entity that the information in this resource relates to, if different than the person of record. The subject of information can be a reference or a code, the latter when the subject is described generically, for example, in terms of a relationship to the subject of record (e.g., wife).</t>
+  </si>
+  <si>
+    <t>odh-OccupationalDataSection-model.narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A human-readable narrative, potentially including images, that contains a summary of the resource, and may be used to represent the content of the resource to a human.</t>
+  </si>
+  <si>
+    <t>odh-OccupationalDataSection-model.type</t>
+  </si>
+  <si>
+    <t>A code describing the item at a greater level of detail.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
+</t>
+  </si>
+  <si>
+    <t>odh-OccupationalDataSection-model.sortOrder</t>
+  </si>
+  <si>
+    <t>Specifies the sorting criterion applied to the items in a list.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+  </si>
+  <si>
     <t>odh-OccupationalDataSection-model.domainResource</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Parent class for any item in clinical or administrative health-related system. A DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.</t>
   </si>
   <si>
+    <t>Parent class for any item in clinical or administrative health-related system. A DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.
+Note to FHIR implementers: SHR includes Status and Identifier fields on DomainResource because these two attributes occur in almost every FHIR resource. The most significant exception are 3 or 4 resources that use an 'active' flag instead of coded status value. There is no apparent pattern to this inconsistency. FHIR resources that use a coded status have active and inactive as status values. In the spirit of providing a consistent object-oriented logical model for FHIR, SHR uses status across all domain resources.</t>
+  </si>
+  <si>
     <t>odh-OccupationalDataSection-model.domainResource.employmentStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/odh-EmploymentStatus-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/odh-EmploymentStatus-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The self-reported current and/or historical status about a person’s economic relationship to work (e.g. having one or more jobs), including start and end dates.</t>
-  </si>
-  <si>
-    <t>The self-reported current and/or historical status about a person’s economic relationship to work (e.g. having one or more jobs), including start and end dates.
-A person's Employment Status could change over time, for example, a person could be employed following a period of choosing to not be in the labor force.
-Outside of ODH, the employment arrangement between an employer and a person (one job) has sometimes been referred to as a person's 'employment status.' However, in ODH Employment Status is used to characterize a person, Work Classification is used to characterize a job, and Retirement Date is used to characterize a person as retired.</t>
+    <t>The self-reported current and/or historical status about a person’s economic relationship to work (e.g. having one or more jobs), including start and end dates. A person’s Employment Status could change over time, for example, a person could be employed following a period of choosing to not be in the labor force. Outside of ODH, the employment arrangement between an employer and a person (one job) has sometimes been referred to as a person’s ‘employment status.’ However, in ODH, Employment Status is used to characterize a person, Work Classification is used to characterize a job, and Retirement Date is used to characterize a person as retired.</t>
   </si>
   <si>
     <t>odh-OccupationalDataSection-model.domainResource.retirementDate</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/odh-RetirementDate-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/odh-RetirementDate-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>A self-reported date that a person considers themselves to have ‘retired’.</t>
-  </si>
-  <si>
-    <t>A self-reported date that a person considers themselves to have ‘retired’.
-A person can be both retired and employed (an Employment Status); most often, a person would be retired from one job and employed in another job. A person also can have more than one retirement date; for example, a person could retire from military service, then later retire from a civilian job. Multiple retirement dates should be recorded using multiple FHIR resources.
-Outside of ODH, a characterization of the employment arrangement between an employer and a person (one job) has sometimes been referred to as a person's 'employment status' and might include values such as 'retired.' However, in ODH, Employment Status is used to characterize a person's relationship to working (e.g., employed, unemployed) and Retirement Date is used to characterize whether or not a person self-identifies as retired. For example, a person could be 'employed' (Employment Status) and have retired from a previous job (recorded at the Person level as a Retirement Date).</t>
+    <t>A self-reported date that a person considers themselves to have ‘retired’. A person can be both retired and employed (an Employment Status); most often, a person would be retired from one job and employed in another job. A person also can have more than one retirement date; for example, a person could retire from military service, then later retire from a civilian job. Multiple retirement dates should be recorded using multiple instance of this profile. Outside of ODH, a characterization of the employment arrangement between an employer and a person (one job) has sometimes been referred to as a person’s ‘employment status’ and might include values such as ‘retired.’ However, in ODH, Employment Status is used to characterize a person’s relationship to working (e.g., employed, unemployed) and Retirement Date is used to characterize whether or not a person self-identifies as retired. For example, a person could be ‘employed’ (Employment Status) and have retired from a previous job (recorded at the Person level as a Retirement Date).</t>
   </si>
   <si>
     <t>odh-OccupationalDataSection-model.domainResource.combatZonePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/odh-CombatZonePeriod-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/odh-CombatZonePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Self-reported date range(s) when a person worked in what is considered a combat zone; sometimes called a hazardous duty work. Both civilian workers, such as Department of Defense contractors, and military service members could have worked in combat zones. Multiple periods in combat zone should be recorded using multiple FHIR resources.</t>
+    <t>Self-reported date range(s) when a person worked in what is considered a combat zone; sometimes called a hazardous duty work. Both civilian workers, such as Department of Defense contractors, and military service members could have worked in combat zones. Multiple periods in combat zone should be recorded using multiple instances of this profile.</t>
   </si>
   <si>
     <t>odh-OccupationalDataSection-model.domainResource.usualWork</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/odh-UsualWork-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/odh-UsualWork-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Related data elements about the work a person reports having performed for the longest amount of time during his or her life, regardless of the person's current job and regardless of whether or not the person performed this work for a continuous time.</t>
-  </si>
-  <si>
-    <t>Related data elements about the work a person reports having performed for the longest amount of time during his or her life, regardless of the person's current job and regardless of whether or not the person performed this work for a continuous time.
-Knowledge of person's Usual Work can potentially assist in diagnosis, treatment and/or prevention of chronic condition(s) or conditions with a long latency. The potential for exposure to Occupational Hazard(s) related to an Occupation and/or an Industry can change over time, and a person could have been in and out of their Usual Work over time, so additional data are helpful to fully evaluate the possible impact of the person's Usual Work on their health and guide appropriate use of screening tests to detect early disease.
-Example: a person has worked for a total of 30 years as a building carpenter (Occupation), but in various industries, mostly hotel construction. Her Usual Occupation is 'building carpenter' and her Usual Industry is 'hotel construction.'
-Usual Work does not include work that was unpaid or voluntary.</t>
+    <t>Related data elements about the work a person reports having performed for the longest amount of time during his or her life, regardless of the person’s current job and regardless of whether or not the person performed this work for a continuous time. Knowledge of person’s Usual Work can potentially assist in diagnosis, treatment and/or prevention of chronic condition(s) or conditions with a long latency. The potential for exposure to Occupational Hazard(s) related to an Occupation and/or an Industry can change over time, and a person could have been in and out of their Usual Work over time, so additional data are helpful to fully evaluate the possible impact of the person’s Usual Work on their health and guide appropriate use of screening tests to detect early disease. Example: a person has worked for a total of 30 years as a building carpenter (Occupation), but in various industries, mostly hotel construction. Her Usual Occupation is ‘building carpenter’ and her Usual Industry is ‘hotel construction.’ Usual Work does not include work that was unpaid or voluntary.</t>
   </si>
   <si>
     <t>odh-OccupationalDataSection-model.domainResource.pastOrPresentJob</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/odh-PastOrPresentJob-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/odh-PastOrPresentJob-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Related data elements for a current or previous job, as reported by the person, i.e., a work situation or position held for a specified time period.</t>
-  </si>
-  <si>
-    <t>Related data elements for a current or previous job, as reported by the person, i.e., a work situation or position held for a specified time period.
-A person can have more than one job at the same time and multiple jobs over time, so the data related to each job must remain in the record in perpetuity. Each job should be recorded in a separate instance of PastOrPresentJob.
-A person's job can be a social determinant of their health and information about a person's job can support patient care, population health, and public health. In patient care, knowledge of a person's past or present job(s) can impact recognition, diagnosis, management, and treatment of injuries and illnesses. These data also can be used for clinical decision support and to prompt discussion of preventive care measures. For example, a record of jobs that require prolonged time in the sun might prompt a health care provider to inquire if the person wears protective clothing or sunscreen while working.
-At a minimum, it is important to have a record of a person's current job(s); i.e., the job(s) in which a person is engaged at the time that he or she presents to a health care provider, regardless of duration, and to retain that information over time. In the event a person recently stopped working (e.g. retired without another job, became unemployed or disabled and unable to work), the most recent job(s) is used instead of the current job(s).</t>
+    <t>Related data elements for a current or previous job, as reported by the person, i.e., a work situation or position held for a specified time period. A person can have more than one job at the same time and multiple jobs over time, so the data related to each job must remain in the record in perpetuity. Each job should be recorded in a separate instance of PastOrPresentJob. A person’s job can be a social determinant of their health and information about a person’s job can support patient care, population health, and public health. In patient care, knowledge of a person’s past or present job(s) can impact recognition, diagnosis, management, and treatment of injuries and illnesses. These data also can be used for clinical decision support and to prompt discussion of preventive care measures. For example, a record of jobs that require prolonged time in the sun might prompt a health care provider to inquire if the person wears protective clothing or sunscreen while working. At a minimum, it is important to have a record of a person’s current job(s); i.e., the job(s) in which a person is engaged at the time that he or she presents to a health care provider, regardless of duration, and to retain that information over time. In the event a person recently stopped working (e.g. retired without another job, became unemployed or disabled and unable to work), the most recent job(s) is used instead of the current job(s).</t>
+  </si>
+  <si>
+    <t>odh-OccupationalDataSection-model.emptyReason</t>
+  </si>
+  <si>
+    <t>Why the section is empty.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
   </si>
   <si>
     <t>odh-OccupationalDataSection-model.section</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Section-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Section-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -374,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -407,8 +482,8 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.1875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
@@ -647,13 +722,13 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -721,7 +796,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -732,7 +807,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>36</v>
@@ -744,10 +819,10 @@
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>46</v>
@@ -777,13 +852,11 @@
         <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>36</v>
@@ -801,13 +874,13 @@
         <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>36</v>
@@ -818,7 +891,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -841,13 +914,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -898,7 +971,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -915,7 +988,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -926,7 +999,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>36</v>
@@ -938,13 +1011,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -995,13 +1068,13 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>36</v>
@@ -1012,7 +1085,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1035,10 +1108,10 @@
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>57</v>
@@ -1092,7 +1165,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1120,7 +1193,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>36</v>
@@ -1132,13 +1205,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1165,16 +1238,14 @@
         <v>36</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="X8" s="2"/>
       <c r="Y8" t="s" s="2">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>36</v>
@@ -1195,7 +1266,7 @@
         <v>37</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>36</v>
@@ -1206,7 +1277,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1217,7 +1288,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>36</v>
@@ -1229,7 +1300,7 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>64</v>
@@ -1262,13 +1333,11 @@
         <v>36</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="X9" s="2"/>
       <c r="Y9" t="s" s="2">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>36</v>
@@ -1286,23 +1355,797 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AH9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI9" t="s" s="2">
+      <c r="G11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI9">
+  <autoFilter ref="A1:AI17">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1312,7 +2155,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI8">
+  <conditionalFormatting sqref="A2:AI16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
